--- a/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code Beta\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACFDE66-897C-46B5-909A-858C6DF65308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4818B8A0-BE9B-479E-9DD3-8AF5A887489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Colors</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Virtual Distance (m)</t>
   </si>
   <si>
-    <t>Analysis Types</t>
-  </si>
-  <si>
     <t>Protocol Names</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>Plotting Order</t>
+  </si>
+  <si>
+    <t>Y-axis</t>
+  </si>
+  <si>
+    <t>Axes</t>
+  </si>
+  <si>
+    <t>Absolute Value</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -496,25 +502,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -525,31 +531,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -557,19 +563,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -577,39 +583,47 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4818B8A0-BE9B-479E-9DD3-8AF5A887489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EB18B-87B2-482C-A44D-9F086C73D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -489,7 +489,7 @@
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
@@ -589,13 +589,13 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>

--- a/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/Sim Scaling Analysis Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd7473887230acd6/Documents/EMC-Scrotation-Station/New Analysis Code/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EB18B-87B2-482C-A44D-9F086C73D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D07EB18B-87B2-482C-A44D-9F086C73D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4FD109-7230-4E90-A7F4-F4A17A322D3A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Protocol Names</t>
   </si>
   <si>
-    <t>Log2 of Height (log2 °)</t>
-  </si>
-  <si>
     <t>0, 1, 2, 4, 8, 16, 32</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Absolute Value</t>
+  </si>
+  <si>
+    <t>Angle of Height (log2 Scaled °)</t>
   </si>
 </sst>
 </file>
@@ -479,22 +479,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -502,16 +502,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -531,31 +531,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -569,13 +569,13 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -586,16 +586,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10">
